--- a/artfynd/A 62297-2025 artfynd.xlsx
+++ b/artfynd/A 62297-2025 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>130854052</v>
       </c>
       <c r="B2" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -825,7 +825,7 @@
         <v>130854982</v>
       </c>
       <c r="B3" t="n">
-        <v>58252</v>
+        <v>58256</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
